--- a/predict_skema1_part3.xlsx
+++ b/predict_skema1_part3.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.974847377285335</v>
+        <v>1.75901690390459</v>
       </c>
       <c r="C2" t="n">
-        <v>1.392016705102771</v>
+        <v>1.571864228930504</v>
       </c>
       <c r="D2" t="n">
-        <v>3.650629365955838</v>
+        <v>3.231025638812198</v>
       </c>
       <c r="E2" t="n">
-        <v>3.161404843478699</v>
+        <v>3.455318847729881</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.731225083510706</v>
+        <v>1.73753692227582</v>
       </c>
       <c r="C3" t="n">
-        <v>1.438817743551003</v>
+        <v>1.599994097814629</v>
       </c>
       <c r="D3" t="n">
-        <v>2.763231154474292</v>
+        <v>3.661567470049724</v>
       </c>
       <c r="E3" t="n">
-        <v>2.539376392718572</v>
+        <v>3.244202207840273</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.045236988670502</v>
+        <v>1.924907926446617</v>
       </c>
       <c r="C4" t="n">
-        <v>1.502613182592912</v>
+        <v>1.559767549539409</v>
       </c>
       <c r="D4" t="n">
-        <v>3.423581694579057</v>
+        <v>3.410831134994743</v>
       </c>
       <c r="E4" t="n">
-        <v>3.010970068213794</v>
+        <v>2.899616639661702</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.042462363459171</v>
+        <v>1.882674545364517</v>
       </c>
       <c r="C5" t="n">
-        <v>1.470234470515291</v>
+        <v>1.686447021303305</v>
       </c>
       <c r="D5" t="n">
-        <v>3.554293540882702</v>
+        <v>3.229868607708049</v>
       </c>
       <c r="E5" t="n">
-        <v>3.126700660366477</v>
+        <v>3.856810722530436</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.989841412658594</v>
+        <v>1.807099089480527</v>
       </c>
       <c r="C6" t="n">
-        <v>1.307937396027109</v>
+        <v>1.412126231922508</v>
       </c>
       <c r="D6" t="n">
-        <v>3.347769880443158</v>
+        <v>3.405952010319894</v>
       </c>
       <c r="E6" t="n">
-        <v>2.851101745785276</v>
+        <v>2.93259517002331</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.801614694895873</v>
+        <v>1.903427944817846</v>
       </c>
       <c r="C7" t="n">
-        <v>1.549414221041143</v>
+        <v>1.587897418423533</v>
       </c>
       <c r="D7" t="n">
-        <v>3.02333788574551</v>
+        <v>3.527285599712799</v>
       </c>
       <c r="E7" t="n">
-        <v>2.964440759223648</v>
+        <v>2.696136625772083</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.798840069684543</v>
+        <v>1.861194563735747</v>
       </c>
       <c r="C8" t="n">
-        <v>1.517035508963523</v>
+        <v>1.714576890187429</v>
       </c>
       <c r="D8" t="n">
-        <v>2.847280826710522</v>
+        <v>3.612639351128449</v>
       </c>
       <c r="E8" t="n">
-        <v>2.50502963104223</v>
+        <v>3.532386028363767</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.746219118883965</v>
+        <v>1.785619107851757</v>
       </c>
       <c r="C9" t="n">
-        <v>1.35473843447534</v>
+        <v>1.440256100806632</v>
       </c>
       <c r="D9" t="n">
-        <v>3.168140472411576</v>
+        <v>3.61687853518312</v>
       </c>
       <c r="E9" t="n">
-        <v>2.5965845170052</v>
+        <v>2.592394181652262</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.112851974844339</v>
+        <v>2.048565567906544</v>
       </c>
       <c r="C10" t="n">
-        <v>1.580830948005432</v>
+        <v>1.67435034191221</v>
       </c>
       <c r="D10" t="n">
-        <v>3.279763266656361</v>
+        <v>3.460530402172709</v>
       </c>
       <c r="E10" t="n">
-        <v>2.826406392910301</v>
+        <v>3.851073340833429</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.060231024043761</v>
+        <v>1.972990112022554</v>
       </c>
       <c r="C11" t="n">
-        <v>1.418533873517249</v>
+        <v>1.400029552531412</v>
       </c>
       <c r="D11" t="n">
-        <v>3.196962746177948</v>
+        <v>3.463538096390239</v>
       </c>
       <c r="E11" t="n">
-        <v>3.017014887964757</v>
+        <v>3.048707627146328</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.05745639883243</v>
+        <v>1.930756730940455</v>
       </c>
       <c r="C12" t="n">
-        <v>1.386155161439628</v>
+        <v>1.526709024295308</v>
       </c>
       <c r="D12" t="n">
-        <v>3.546071789437646</v>
+        <v>3.495944688331243</v>
       </c>
       <c r="E12" t="n">
-        <v>3.193698486449537</v>
+        <v>3.187254264328142</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.86922968106971</v>
+        <v>2.027085586277774</v>
       </c>
       <c r="C13" t="n">
-        <v>1.627631986453663</v>
+        <v>1.702480210796334</v>
       </c>
       <c r="D13" t="n">
-        <v>2.87575328074655</v>
+        <v>3.690449248534677</v>
       </c>
       <c r="E13" t="n">
-        <v>3.034833347908625</v>
+        <v>3.343061824037484</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.816608730269133</v>
+        <v>1.951510130393784</v>
       </c>
       <c r="C14" t="n">
-        <v>1.46533491196548</v>
+        <v>1.428159421415536</v>
       </c>
       <c r="D14" t="n">
-        <v>3.079999236663237</v>
+        <v>3.711843322872989</v>
       </c>
       <c r="E14" t="n">
-        <v>2.963207876516492</v>
+        <v>2.533541505017802</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.813834105057802</v>
+        <v>1.909276749311684</v>
       </c>
       <c r="C15" t="n">
-        <v>1.43295619988786</v>
+        <v>1.554838893179432</v>
       </c>
       <c r="D15" t="n">
-        <v>3.635821771000512</v>
+        <v>3.63881989084375</v>
       </c>
       <c r="E15" t="n">
-        <v>2.814590114178327</v>
+        <v>2.858874407081026</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.127846010217598</v>
+        <v>2.096647753482481</v>
       </c>
       <c r="C16" t="n">
-        <v>1.496751638929769</v>
+        <v>1.514612344904213</v>
       </c>
       <c r="D16" t="n">
-        <v>3.431652204919835</v>
+        <v>3.724205299076385</v>
       </c>
       <c r="E16" t="n">
-        <v>2.903225604543725</v>
+        <v>2.888813323980188</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.884223716442969</v>
+        <v>2.075167771853712</v>
       </c>
       <c r="C17" t="n">
-        <v>1.543552677378</v>
+        <v>1.542742213788336</v>
       </c>
       <c r="D17" t="n">
-        <v>3.696483077169072</v>
+        <v>3.737085002258346</v>
       </c>
       <c r="E17" t="n">
-        <v>2.964440759223648</v>
+        <v>2.657031775932324</v>
       </c>
     </row>
   </sheetData>
